--- a/ProjectUR/Content/Data/Excel/LevelUpCard.xlsx
+++ b/ProjectUR/Content/Data/Excel/LevelUpCard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tls63\ProjectUR\ProjectUR\Content\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803290B0-75F5-4A88-A7AA-5013D1532E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC1CCF9-F31C-4B72-B924-FF64E2B31FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1695" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="795" windowWidth="27000" windowHeight="13305" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public_Card" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
   <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,68 @@
   </si>
   <si>
     <t>SkillCardDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIconChangeLevelInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/04_UI/99_Resources/SkillIconPack/Textures/Tex_skillicon_16_01.Tex_skillicon_16_01'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/04_UI/99_Resources/SkillIconPack/Textures/Tex_skillicon_111_01.Tex_skillicon_111_01'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/04_UI/99_Resources/SkillIconPack/Textures/Tex_skillicon_216_01.Tex_skillicon_216_01'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/04_UI/99_Resources/SkillIconPack/Textures/Tex_skillicon_234_01.Tex_skillicon_234_01'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/04_UI/99_Resources/SkillIconPack/Textures/Tex_skillicon_153_01.Tex_skillicon_153_01'</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconColor_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconColor_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconColor_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseIconNum</t>
+  </si>
+  <si>
+    <t>UseIconNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseIconNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/04_UI/99_Resources/SkillIconPack/Textures/Tex_skillicon_111_01.Tex_skillicon_111_01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,8 +217,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -437,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -448,10 +513,14 @@
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="61.75" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +530,26 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -472,8 +559,26 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -483,8 +588,26 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>0.84</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -494,8 +617,26 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>0.87</v>
+      </c>
+      <c r="H4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -505,8 +646,26 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0.252</v>
+      </c>
+      <c r="H5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -516,8 +675,26 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -527,6 +704,36 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0.63</v>
+      </c>
+      <c r="H7">
+        <v>0.106</v>
+      </c>
+      <c r="I7">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -536,19 +743,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE978CDB-AE6E-4D15-AAB7-D6747B74640E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="24.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +771,26 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -569,8 +800,26 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -580,8 +829,26 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>0.84</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -591,8 +858,26 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>0.87</v>
+      </c>
+      <c r="H4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -602,8 +887,26 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0.252</v>
+      </c>
+      <c r="H5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -613,8 +916,26 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -623,6 +944,24 @@
       </c>
       <c r="C7" t="s">
         <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0.63</v>
+      </c>
+      <c r="H7">
+        <v>0.106</v>
+      </c>
+      <c r="I7">
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>
@@ -633,19 +972,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAEA60E-FB0B-4740-B28C-602711280383}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G3" sqref="G3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="43.625" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,8 +999,26 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -666,8 +1028,26 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -677,8 +1057,26 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>0.84</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -688,8 +1086,26 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>0.87</v>
+      </c>
+      <c r="H4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -699,8 +1115,26 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0.252</v>
+      </c>
+      <c r="H5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -710,8 +1144,26 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -720,6 +1172,24 @@
       </c>
       <c r="C7" t="s">
         <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0.63</v>
+      </c>
+      <c r="H7">
+        <v>0.106</v>
+      </c>
+      <c r="I7">
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>
@@ -730,19 +1200,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3ED7B3-9608-45CF-889B-574F52409131}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G3" sqref="G3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,8 +1225,26 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -763,8 +1254,26 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -774,8 +1283,26 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>0.84</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -785,8 +1312,26 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>0.87</v>
+      </c>
+      <c r="H4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -796,8 +1341,26 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0.252</v>
+      </c>
+      <c r="H5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -807,8 +1370,26 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -817,6 +1398,24 @@
       </c>
       <c r="C7" t="s">
         <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0.63</v>
+      </c>
+      <c r="H7">
+        <v>0.106</v>
+      </c>
+      <c r="I7">
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>
@@ -827,19 +1426,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C413227A-A5E4-41A6-9887-495C4161D210}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G3" sqref="G3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -849,8 +1453,26 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -860,8 +1482,26 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -871,8 +1511,26 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>0.84</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -882,8 +1540,26 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>0.87</v>
+      </c>
+      <c r="H4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -893,8 +1569,26 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0.252</v>
+      </c>
+      <c r="H5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -904,8 +1598,26 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -914,6 +1626,24 @@
       </c>
       <c r="C7" t="s">
         <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0.63</v>
+      </c>
+      <c r="H7">
+        <v>0.106</v>
+      </c>
+      <c r="I7">
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>
